--- a/streamlitapp/updated_file.xlsx
+++ b/streamlitapp/updated_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,22 +531,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>(0, 'Adherence')</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>(0, 'Recommendation')</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>(1, 'Adherence')</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>(1, 'Recommendation')</t>
+          <t>Recommendation</t>
         </is>
       </c>
     </row>
@@ -631,44 +616,20 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>NON-ADHERENT</t>
+          <t>ADHERENT</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>ADHERENT</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
           <t>Dear valued patient,
-We want to take a moment to express our deepest appreciation for your commitment to managing your diabetes mellitus through the use of insulin and Cozaar (losartan potassium). Your dedication to your health is inspiring, and we are proud to be a part of your care team.
-Insulin is a critical medication for managing diabetes mellitus, as it helps to regulate blood sugar levels. Without insulin, your body is unable to properly use the sugar in your bloodstream, which can lead to serious health complications such as nerve damage, kidney disease, and blindness. Continuing to take your insulin as prescribed is essential to avoiding these future expenses and preventing further damage to your body.
-Cozaar (losartan potassium) is another important medication for managing diabetes mellitus, as it helps to lower blood pressure and reduce the risk of heart disease. High blood pressure is a common complication of diabetes, and Cozaar (losartan potassium) helps to keep your blood pressure at a healthy level. Discontinuing Cozaar (losartan potassium) can lead to an increased risk of heart disease and other cardiovascular complications, which can be costly and dangerous.
-It's essential to understand that discontinuing either insulin or Cozaar (losartan potassium) without consulting your healthcare provider can lead to serious health complications. Suddenly stopping insulin can lead to a condition called diabetic ketoacidosis, which is a potentially life-threatening condition that can require hospitalization. Rapidly stopping Cozaar (losartan potassium) can also lead to an increase in blood pressure, which can increase the risk of heart disease and stroke.
-We encourage you to continue taking your insulin and Cozaar (losartan potassium) as prescribed and to always consult your healthcare provider before making any changes to your medication regimen. It's essential to work closely with your healthcare provider to ensure that your diabetes mellitus is effectively managed and to avoid any unnecessary health complications or expenses.
-We want you to know that we value your progress and are committed to supporting you in your health journey. Your dedication to your health is a testament to your strength and resilience, and we are proud to be a part of your</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>NON-ADHERENT</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Dear valued patient,
-We understand that managing diabetes and high blood pressure can be a challenge, but we want to reassure you that continuing your medication, including INSULIN and UNIVASC, is crucial for your long-term health.
-Discontinuing UNIVASC can lead to increased blood pressure and subsequent health complications such as stroke, heart attack, and kidney damage. Additionally, it may result in higher healthcare costs as untreated hypertension can lead to more frequent doctor's visits and hospitalizations.
-To help you manage your medication intake, we recommend setting reminders, such as using a pill organizer or downloading a medication tracking app. You may also consider discussing a dosage adjustment with your healthcare provider to find a regimen that works best for you.
-Managing medication costs can be challenging, but we suggest exploring assistance programs and insurance coverage options. Our company, [Company Name], offers a discount program for eligible patients, and we can provide more information upon request.
-It's crucial to educate yourself about diabetes and high blood pressure management to make informed decisions about your treatment plan. We encourage you to consult your healthcare provider if you have any questions or concerns.
-Regular check-ups and open communication with your healthcare provider are vital for monitoring your condition and adjusting your treatment plan as needed. We want to emphasize the importance of staying committed to your treatment plan for better health outcomes.
-As a token of our support, we would like to offer you a free sample of MOEXIPRIL HCL, our specialty pharma product. This medication can help manage hypertension and may be a helpful addition to your treatment plan.
-Please don't hesitate to reach out to us if you have any questions or concerns. We're here to support you every step of the way.
-Best regards,
-[Your Name]
-[Company Name]</t>
+We want to take a moment to express our sincere gratitude for your commitment to your diabetes management plan, particularly in relation to your use of insulin and Cozaar (losartan potassium). Your dedication to your health is truly inspiring, and we want to commend you for your perseverance in sticking to your medication regimen.
+Your ongoing use of insulin and Cozaar is crucial in managing your diabetes and preventing future health complications. Insulin plays a vital role in regulating your blood sugar levels, which is especially important for individuals with diabetes mellitus. Cozaar, on the other hand, is an angiotensin II receptor blocker (ARB) that helps to lower blood pressure and protect your kidneys from damage associated with diabetes.
+Unfortunately, some patients may be tempted to discontinue their medication, particularly in light of the ongoing pandemic and financial pressures. However, it's essential to understand the potential risks involved with discontinuing your medication without consulting your healthcare provider.
+If you stop taking insulin, your blood sugar levels may rise to dangerous levels, increasing your risk of complications such as neuropathy, nephropathy, retinopathy, and cardiovascular events. Discontinuation of Cozaar, on the other hand, can lead to an increase in blood pressure, which can put additional strain on your heart and kidneys, exacerbating any existing damage.
+It's essential to remember that while medication can be expensive, the cost of managing complications associated with uncontrolled diabetes is often much higher. By continuing to take your medication as prescribed, you're helping to avoid future expenses and minimize the risk of long-term health complications.
+We understand that managing diabetes can be challenging, and we want to assure you that we're here to support you every step of the way. Our team of healthcare professionals is committed to providing you with the best possible care and ensuring that you're equipped with the tools and resources you need to manage your diabetes effectively.
+We're proud of your progress and want to encourage you to continue making positive lifestyle choices, such as a healthy diet and regular exercise, to further improve your diabetes management plan. Together, we can work towards a brighter, healthier future.
+Remember, your health and wellbeing are our top priorities,</t>
         </is>
       </c>
     </row>
@@ -758,39 +719,19 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>ADHERENT</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
           <t>Dear valued patient,
-We want to take a moment to express our deepest appreciation for your commitment to managing your diabetes mellitus through the use of insulin and Cozaar (losartan potassium). Your dedication to your health is inspiring, and we are proud to be a part of your care team.
-Insulin is a critical medication for managing diabetes mellitus, as it helps to regulate blood sugar levels. Without insulin, your body is unable to properly use the sugar in your bloodstream, which can lead to serious health complications such as nerve damage, kidney disease, and blindness. Continuing to take your insulin as prescribed is essential to avoiding these future expenses and preventing further damage to your body.
-Cozaar (losartan potassium) is another important medication for managing diabetes mellitus, as it helps to lower blood pressure and reduce the risk of heart disease. High blood pressure is a common complication of diabetes, and Cozaar (losartan potassium) helps to keep your blood pressure at a healthy level. Discontinuing Cozaar (losartan potassium) can lead to an increased risk of heart disease and other cardiovascular complications, which can be costly and dangerous.
-It's essential to understand that discontinuing either insulin or Cozaar (losartan potassium) without consulting your healthcare provider can lead to serious health complications. Suddenly stopping insulin can lead to a condition called diabetic ketoacidosis, which is a potentially life-threatening condition that can require hospitalization. Rapidly stopping Cozaar (losartan potassium) can also lead to an increase in blood pressure, which can increase the risk of heart disease and stroke.
-We encourage you to continue taking your insulin and Cozaar (losartan potassium) as prescribed and to always consult your healthcare provider before making any changes to your medication regimen. It's essential to work closely with your healthcare provider to ensure that your diabetes mellitus is effectively managed and to avoid any unnecessary health complications or expenses.
-We want you to know that we value your progress and are committed to supporting you in your health journey. Your dedication to your health is a testament to your strength and resilience, and we are proud to be a part of your</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>NON-ADHERENT</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Dear valued patient,
-We understand that managing diabetes and high blood pressure can be a challenge, but we want to reassure you that continuing your medication, including INSULIN and UNIVASC, is crucial for your long-term health.
-Discontinuing UNIVASC can lead to increased blood pressure and subsequent health complications such as stroke, heart attack, and kidney damage. Additionally, it may result in higher healthcare costs as untreated hypertension can lead to more frequent doctor's visits and hospitalizations.
-To help you manage your medication intake, we recommend setting reminders, such as using a pill organizer or downloading a medication tracking app. You may also consider discussing a dosage adjustment with your healthcare provider to find a regimen that works best for you.
-Managing medication costs can be challenging, but we suggest exploring assistance programs and insurance coverage options. Our company, [Company Name], offers a discount program for eligible patients, and we can provide more information upon request.
-It's crucial to educate yourself about diabetes and high blood pressure management to make informed decisions about your treatment plan. We encourage you to consult your healthcare provider if you have any questions or concerns.
-Regular check-ups and open communication with your healthcare provider are vital for monitoring your condition and adjusting your treatment plan as needed. We want to emphasize the importance of staying committed to your treatment plan for better health outcomes.
-As a token of our support, we would like to offer you a free sample of MOEXIPRIL HCL, our specialty pharma product. This medication can help manage hypertension and may be a helpful addition to your treatment plan.
-Please don't hesitate to reach out to us if you have any questions or concerns. We're here to support you every step of the way.
-Best regards,
-[Your Name]
-[Company Name]</t>
+We understand that managing diabetes and taking medication can sometimes be challenging, but we want to emphasize the importance of adhering to your treatment plan. Consistently taking UNIVASC, in addition to INSULIN, is crucial for controlling your blood pressure and reducing the risk of complications associated with diabetes.
+Discontinuing UNIVASC can lead to worsening symptoms, such as increased blood pressure, headaches, and dizziness. Additionally, stopping the medication can increase healthcare costs in the long run as it may lead to more frequent hospitalizations and emergency room visits due to complications.
+To make it easier to manage your medication intake, we recommend setting reminders for when to take your medication. You can use a pill organizer, a smartphone app, or a simple reminder on your phone or calendar. Tracking your medication intake can also help you stay on track and identify any issues or concerns with your medication regimen.
+Managing medication costs can be a challenge, but we want to offer some practical suggestions. First, we recommend checking if your insurance covers UNIVASC and MOEXIPRIL HCL (brand name for your medication). If you're not sure, contact your insurance provider or healthcare provider for more information.
+We also recommend looking into assistance programs offered by the manufacturer of MOEXIPRIL HCL. These programs may help you manage the cost of your medication, making it more affordable for you.
+Educating yourself about diabetes and your treatment options is also crucial. We encourage you to consult with your healthcare provider for any questions or concerns you may have about your medication regimen or managing diabetes.
+Regular check-ups and open communication with your healthcare provider are also important for managing your condition. By staying committed to your treatment plan and working closely with your healthcare provider, you can achieve better health outcomes and avoid potential complications associated with diabetes.
+As a valued patient, we want to offer you a non-affective discount and goodies from the company. Sign below with the brand name MOEXIPRIL HCL or the company name to take advantage of this offer.
+Remember, staying committed to your treatment plan is crucial for managing diabetes and reducing the risk of complications. We're here to support you every step of the way.
+Sincerely,
+[Your Name and Signature]
+[Company</t>
         </is>
       </c>
     </row>
